--- a/table/Enum.Exception.Client.xlsx
+++ b/table/Enum.Exception.Client.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Crash\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F93D7E-7EBC-40A7-BF8D-9057477A2D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34AB958-2BEF-4B1C-9B80-E61447EAAC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4395" yWindow="4680" windowWidth="10740" windowHeight="11385" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
@@ -422,7 +422,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
